--- a/1.data/2.processed/df_book_updated.xlsx
+++ b/1.data/2.processed/df_book_updated.xlsx
@@ -622,13 +622,13 @@
         <v>1706</v>
       </c>
       <c r="J2" t="n">
-        <v>601</v>
+        <v>628</v>
       </c>
       <c r="K2" t="n">
         <v>1.8</v>
       </c>
       <c r="L2" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -637,41 +637,41 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q2" t="n">
-        <v>75.09999999999999</v>
+        <v>69.8</v>
       </c>
       <c r="R2" t="n">
-        <v>19918</v>
+        <v>20994</v>
       </c>
       <c r="S2" t="n">
-        <v>331.97</v>
+        <v>349.9</v>
       </c>
       <c r="T2" t="n">
-        <v>5.53</v>
+        <v>5.83</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="V2" t="n">
-        <v>41.5</v>
+        <v>38.9</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0:41</t>
+          <t>0:39</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>5:31:58</t>
+          <t>5:49:54</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
@@ -4279,11 +4279,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>L'Encyclopédie féérique tome 2 : L'Atlas des Autreterres d'Emily Wilde</t>
+          <t>L’Encyclopédie féerique d’Emily Wilde</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4308,29 +4308,29 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Encyclopédie féerique </t>
+          <t xml:space="preserve">Emily Wilde </t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>491</v>
+        <v>538</v>
       </c>
       <c r="J35" t="n">
-        <v>470</v>
+        <v>513</v>
       </c>
       <c r="K35" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="L35" t="n">
         <v>100</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -4339,37 +4339,37 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="P35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.8</v>
+        <v>85.5</v>
       </c>
       <c r="R35" t="n">
-        <v>23592</v>
+        <v>20584</v>
       </c>
       <c r="S35" t="n">
-        <v>393.2</v>
+        <v>343.07</v>
       </c>
       <c r="T35" t="n">
-        <v>6.55</v>
+        <v>5.72</v>
       </c>
       <c r="U35" t="n">
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="V35" t="n">
-        <v>49.2</v>
+        <v>57.2</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>0:49</t>
+          <t>0:57</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>6:33:12</t>
+          <t>5:43:04</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4393,11 +4393,11 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>L’Encyclopédie féerique d’Emily Wilde</t>
+          <t>L'Encyclopédie féérique tome 2 : L'Atlas des Autreterres d'Emily Wilde</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4422,29 +4422,29 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emily Wilde </t>
+          <t xml:space="preserve">Encyclopédie féerique </t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>538</v>
+        <v>491</v>
       </c>
       <c r="J36" t="n">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="K36" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="L36" t="n">
         <v>100</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2024-12-06</t>
+          <t>2024-12-12</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -4453,37 +4453,37 @@
         </is>
       </c>
       <c r="O36" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P36" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q36" t="n">
-        <v>85.5</v>
+        <v>58.8</v>
       </c>
       <c r="R36" t="n">
-        <v>20584</v>
+        <v>23592</v>
       </c>
       <c r="S36" t="n">
-        <v>343.07</v>
+        <v>393.2</v>
       </c>
       <c r="T36" t="n">
-        <v>5.72</v>
+        <v>6.55</v>
       </c>
       <c r="U36" t="n">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="V36" t="n">
-        <v>57.2</v>
+        <v>49.2</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>0:57</t>
+          <t>0:49</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>5:43:04</t>
+          <t>6:33:12</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -7093,21 +7093,21 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Terremer 2 Tehanu</t>
+          <t>La mer de la tranquillité</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ursula Le Guin</t>
+          <t>Emily St. John Mandel</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Ursula Guin</t>
+          <t>Emily John</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -7117,78 +7117,74 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>fiction/fantasy</t>
+          <t>fiction/SF</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Terremer </t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>325</v>
       </c>
       <c r="K60" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
           <t>2024-07-07</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>2024-07-07</t>
-        </is>
-      </c>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P60" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
+        <v>46.4</v>
       </c>
       <c r="R60" t="n">
-        <v>108</v>
+        <v>11415</v>
       </c>
       <c r="S60" t="n">
-        <v>1.8</v>
+        <v>190.25</v>
       </c>
       <c r="T60" t="n">
-        <v>0.03</v>
+        <v>3.17</v>
       </c>
       <c r="U60" t="n">
-        <v>0.03</v>
+        <v>0.45</v>
       </c>
       <c r="V60" t="n">
-        <v>1.8</v>
+        <v>27.2</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>0:01</t>
+          <t>0:27</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>0:01:48</t>
+          <t>3:10:15</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="Z60" s="2" t="n">
@@ -7201,27 +7197,27 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>La mer de la tranquillité</t>
+          <t>Terremer 2 Tehanu</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Emily St. John Mandel</t>
+          <t>Ursula Le Guin</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Emily John</t>
+          <t>Ursula Guin</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -7231,30 +7227,34 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>fiction/SF</t>
+          <t>fiction/fantasy</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
+          <t xml:space="preserve">Terremer </t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="I61" t="n">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="J61" t="n">
-        <v>325</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="L61" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -7263,42 +7263,42 @@
         </is>
       </c>
       <c r="O61" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P61" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>46.4</v>
+        <v>1</v>
       </c>
       <c r="R61" t="n">
-        <v>11415</v>
+        <v>108</v>
       </c>
       <c r="S61" t="n">
-        <v>190.25</v>
+        <v>1.8</v>
       </c>
       <c r="T61" t="n">
-        <v>3.17</v>
+        <v>0.03</v>
       </c>
       <c r="U61" t="n">
-        <v>0.45</v>
+        <v>0.03</v>
       </c>
       <c r="V61" t="n">
-        <v>27.2</v>
+        <v>1.8</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>0:27</t>
+          <t>0:01</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>3:10:15</t>
+          <t>0:01:48</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="Z61" s="2" t="n">
@@ -7311,7 +7311,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>fantasy</t>
         </is>
       </c>
     </row>
@@ -10763,26 +10763,26 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>La nuit des temps</t>
+          <t>La faune de l'espace</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Barjavel,René</t>
+          <t>Van Vogt,Alfred E</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Barjavel René</t>
+          <t>Van Vogt</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -10797,64 +10797,64 @@
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>449</v>
+        <v>809</v>
       </c>
       <c r="J93" t="n">
-        <v>289</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
-        <v>1.4</v>
+        <v>5.4</v>
       </c>
       <c r="L93" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="O93" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="P93" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q93" t="n">
-        <v>28.9</v>
+        <v>2</v>
       </c>
       <c r="R93" t="n">
-        <v>12240</v>
+        <v>22</v>
       </c>
       <c r="S93" t="n">
-        <v>204</v>
+        <v>0.37</v>
       </c>
       <c r="T93" t="n">
-        <v>3.4</v>
+        <v>0.01</v>
       </c>
       <c r="U93" t="n">
-        <v>0.34</v>
+        <v>0.01</v>
       </c>
       <c r="V93" t="n">
-        <v>20.4</v>
+        <v>0.4</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>0:20</t>
+          <t>0:00</t>
         </is>
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>3:24:00</t>
+          <t>0:00:22</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="Z93" s="2" t="n">
@@ -10873,26 +10873,26 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>La faune de l'espace</t>
+          <t>La nuit des temps</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Van Vogt,Alfred E</t>
+          <t>Barjavel,René</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Van Vogt</t>
+          <t>Barjavel René</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>und</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -10907,64 +10907,64 @@
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>809</v>
+        <v>449</v>
       </c>
       <c r="J94" t="n">
-        <v>2</v>
+        <v>289</v>
       </c>
       <c r="K94" t="n">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="O94" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="P94" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q94" t="n">
-        <v>2</v>
+        <v>28.9</v>
       </c>
       <c r="R94" t="n">
-        <v>22</v>
+        <v>12240</v>
       </c>
       <c r="S94" t="n">
-        <v>0.37</v>
+        <v>204</v>
       </c>
       <c r="T94" t="n">
-        <v>0.01</v>
+        <v>3.4</v>
       </c>
       <c r="U94" t="n">
-        <v>0.01</v>
+        <v>0.34</v>
       </c>
       <c r="V94" t="n">
-        <v>0.4</v>
+        <v>20.4</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>0:00</t>
+          <t>0:20</t>
         </is>
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>0:00:22</t>
+          <t>3:24:00</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="Z94" s="2" t="n">
